--- a/FOLDER/FINESTAR/FINESTAR_21_01_2025_04_43_53IBT.xlsx
+++ b/FOLDER/FINESTAR/FINESTAR_21_01_2025_04_43_53IBT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="207">
   <si>
     <t>SrNo</t>
   </si>
@@ -648,54 +648,6 @@
   </si>
   <si>
     <t>HT</t>
-  </si>
-  <si>
-    <t>All Parameter Summary</t>
-  </si>
-  <si>
-    <t>Pcs</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>Flour</t>
-  </si>
-  <si>
-    <t>Note.</t>
-  </si>
-  <si>
-    <t>(1) RAP PRICE MENTION IN LIST MAY BE CHANGE</t>
-  </si>
-  <si>
-    <t>(2) RAP PRICE WILL BE TAKEN AS OF DATE OF SALE</t>
-  </si>
-  <si>
-    <t>(3) PLEASE CHECK DAILY UPDATED PRICE</t>
-  </si>
-  <si>
-    <t>(4) BOLD IS NEW GOODS UPDATED</t>
-  </si>
-  <si>
-    <t>Finestar Jewellery &amp; Diamonds Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>ESTIMATED LIST (21-01-2025 10:13:54)</t>
-  </si>
-  <si>
-    <t>DE-6010, D-TOWER, BHARAT DIAMOND BOURSE, BANDRA-KURLA COMPLEX, BANDRA (E),  MUMBAI - 400 051, MAHARASHTRA, INDIA</t>
-  </si>
-  <si>
-    <t>Website Name:www.finestardiamonds.com/Email Id :sales@finestardiamonds.com</t>
   </si>
 </sst>
 </file>
@@ -709,7 +661,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.00;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,42 +691,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1124,7 +1040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1189,21 +1105,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1308,152 +1209,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1479,24 +1380,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1880,10 +1763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BC121"/>
+  <dimension ref="A1:BA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A76" sqref="$A76:$XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13983,1065 +13866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="9">
-        <f ca="1">ROUND(SUMPRODUCT((BA2:BA75=1)*(SUBTOTAL(9,OFFSET(H2,ROW(H2:H75)-ROW(H2),0)))),2)</f>
-        <v>45.81</v>
-      </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
-      <c r="AG76" s="3"/>
-      <c r="AH76" s="3"/>
-      <c r="AI76" s="3"/>
-      <c r="AJ76" s="3"/>
-      <c r="AK76" s="3"/>
-      <c r="AL76" s="3"/>
-      <c r="AM76" s="3"/>
-      <c r="AN76" s="3"/>
-      <c r="AO76" s="3"/>
-      <c r="AP76" s="3"/>
-      <c r="AQ76" s="3"/>
-      <c r="AR76" s="3"/>
-      <c r="AS76" s="3"/>
-      <c r="AT76" s="3"/>
-      <c r="AU76" s="3"/>
-      <c r="AV76" s="3"/>
-      <c r="AW76" s="3"/>
-      <c r="AX76" s="3"/>
-      <c r="AY76" s="3"/>
-      <c r="AZ76" s="3">
-        <f ca="1">ROUND(SUMPRODUCT((BA2:BA75=1)*(SUBTOTAL(9,OFFSET(AZ2,ROW(AZ2:AZ75)-ROW(AZ2),0)))),2)</f>
-        <v>159389</v>
-      </c>
-    </row>
-    <row r="78" ht="18" spans="2:17">
-      <c r="B78" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="G79" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($G$2:$G$76,ROW($G$2:$G$76)-MIN(ROW($G$2:$G$76)),,1)),--($G$2:$G$76=B81))</f>
-        <v>46</v>
-      </c>
-      <c r="D81" s="13">
-        <f ca="1" t="shared" ref="D81:D86" si="0">C81/$C$88</f>
-        <v>0.621621621621622</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H81" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($J$2:$J$76,ROW($J$2:$J$76)-MIN(ROW($J$2:$J$76)),,1)),--($J$2:$J$76=G81),--($BA$2:$BA$76=1))</f>
-        <v>40</v>
-      </c>
-      <c r="I81" s="13">
-        <f ca="1">H81/$H$88</f>
-        <v>0.540540540540541</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($G$2:$G$76,ROW($G$2:$G$76)-MIN(ROW($G$2:$G$76)),,1)),--($G$2:$G$76=B82))</f>
-        <v>12</v>
-      </c>
-      <c r="D82" s="13">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.162162162162162</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H82" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($J$2:$J$76,ROW($J$2:$J$76)-MIN(ROW($J$2:$J$76)),,1)),--($J$2:$J$76=G82),--($BA$2:$BA$76=1))</f>
-        <v>17</v>
-      </c>
-      <c r="I82" s="13">
-        <f ca="1">H82/$H$88</f>
-        <v>0.22972972972973</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C83" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($G$2:$G$76,ROW($G$2:$G$76)-MIN(ROW($G$2:$G$76)),,1)),--($G$2:$G$76=B83))</f>
-        <v>2</v>
-      </c>
-      <c r="D83" s="13">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.027027027027027</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H83" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($J$2:$J$76,ROW($J$2:$J$76)-MIN(ROW($J$2:$J$76)),,1)),--($J$2:$J$76=G83),--($BA$2:$BA$76=1))</f>
-        <v>10</v>
-      </c>
-      <c r="I83" s="13">
-        <f ca="1">H83/$H$88</f>
-        <v>0.135135135135135</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C84" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($G$2:$G$76,ROW($G$2:$G$76)-MIN(ROW($G$2:$G$76)),,1)),--($G$2:$G$76=B84))</f>
-        <v>7</v>
-      </c>
-      <c r="D84" s="13">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.0945945945945946</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H84" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($J$2:$J$76,ROW($J$2:$J$76)-MIN(ROW($J$2:$J$76)),,1)),--($J$2:$J$76=G84),--($BA$2:$BA$76=1))</f>
-        <v>5</v>
-      </c>
-      <c r="I84" s="13">
-        <f ca="1">H84/$H$88</f>
-        <v>0.0675675675675676</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C85" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($G$2:$G$76,ROW($G$2:$G$76)-MIN(ROW($G$2:$G$76)),,1)),--($G$2:$G$76=B85))</f>
-        <v>6</v>
-      </c>
-      <c r="D85" s="13">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.0810810810810811</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H85" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($J$2:$J$76,ROW($J$2:$J$76)-MIN(ROW($J$2:$J$76)),,1)),--($J$2:$J$76=G85),--($BA$2:$BA$76=1))</f>
-        <v>2</v>
-      </c>
-      <c r="I85" s="13">
-        <f ca="1">H85/$H$88</f>
-        <v>0.027027027027027</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($G$2:$G$76,ROW($G$2:$G$76)-MIN(ROW($G$2:$G$76)),,1)),--($G$2:$G$76=B86))</f>
-        <v>1</v>
-      </c>
-      <c r="D86" s="13">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.0135135135135135</v>
-      </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="12"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C88" s="11">
-        <f ca="1">ROUND(SUM(C81:C87),2)</f>
-        <v>74</v>
-      </c>
-      <c r="D88" s="13">
-        <f ca="1">ROUND(SUM(D81:D87),2)</f>
-        <v>1</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H88" s="11">
-        <f ca="1">ROUND(SUM(H81:H87),2)</f>
-        <v>74</v>
-      </c>
-      <c r="I88" s="13">
-        <f ca="1">ROUND(SUM(I81:I87),2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="G90" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-    </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($I$2:$I$76,ROW($I$2:$I$76)-MIN(ROW($I$2:$I$76)),,1)),--($I$2:$I$76=B92),--($BA$2:$BA$76=1))</f>
-        <v>20</v>
-      </c>
-      <c r="D92" s="13">
-        <f ca="1" t="shared" ref="D92:D97" si="1">C92/$C$99</f>
-        <v>0.27027027027027</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H92" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($O$2:$O$76,ROW($O$2:$O$76)-MIN(ROW($O$2:$O$76)),,1)),--($O$2:$O$76=G92),--($BA$2:$BA$76=1))</f>
-        <v>46</v>
-      </c>
-      <c r="I92" s="13">
-        <f ca="1">H92/$H$99</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($I$2:$I$76,ROW($I$2:$I$76)-MIN(ROW($I$2:$I$76)),,1)),--($I$2:$I$76=B93),--($BA$2:$BA$76=1))</f>
-        <v>21</v>
-      </c>
-      <c r="D93" s="13">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.283783783783784</v>
-      </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($I$2:$I$76,ROW($I$2:$I$76)-MIN(ROW($I$2:$I$76)),,1)),--($I$2:$I$76=B94),--($BA$2:$BA$76=1))</f>
-        <v>12</v>
-      </c>
-      <c r="D94" s="13">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.162162162162162</v>
-      </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C95" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($I$2:$I$76,ROW($I$2:$I$76)-MIN(ROW($I$2:$I$76)),,1)),--($I$2:$I$76=B95),--($BA$2:$BA$76=1))</f>
-        <v>9</v>
-      </c>
-      <c r="D95" s="13">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.121621621621622</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($I$2:$I$76,ROW($I$2:$I$76)-MIN(ROW($I$2:$I$76)),,1)),--($I$2:$I$76=B96),--($BA$2:$BA$76=1))</f>
-        <v>5</v>
-      </c>
-      <c r="D96" s="13">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.0675675675675676</v>
-      </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C97" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($I$2:$I$76,ROW($I$2:$I$76)-MIN(ROW($I$2:$I$76)),,1)),--($I$2:$I$76=B97),--($BA$2:$BA$76=1))</f>
-        <v>7</v>
-      </c>
-      <c r="D97" s="13">
-        <f ca="1" t="shared" si="1"/>
-        <v>0.0945945945945946</v>
-      </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="12"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C99" s="11">
-        <f ca="1">ROUND(SUM(C92:C98),2)</f>
-        <v>74</v>
-      </c>
-      <c r="D99" s="13">
-        <f ca="1">ROUND(SUM(D92:D98),2)</f>
-        <v>1</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H99" s="11">
-        <f ca="1">ROUND(SUM(H92:H98),2)</f>
-        <v>46</v>
-      </c>
-      <c r="I99" s="13">
-        <f ca="1">ROUND(SUM(I92:I98),2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($R$2:$R$76,ROW($R$2:$R$76)-MIN(ROW($R$2:$R$76)),,1)),--($R$2:$R$76=B103),--($BA$2:$BA$76=1))</f>
-        <v>70</v>
-      </c>
-      <c r="D103" s="13">
-        <f ca="1">C103/$C$106</f>
-        <v>0.945945945945946</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C104" s="11">
-        <f ca="1">SUMPRODUCT(SUBTOTAL(3,OFFSET($R$2:$R$76,ROW($R$2:$R$76)-MIN(ROW($R$2:$R$76)),,1)),--($R$2:$R$76=B104),--($BA$2:$BA$76=1))</f>
-        <v>4</v>
-      </c>
-      <c r="D104" s="13">
-        <f ca="1">C104/$C$106</f>
-        <v>0.0540540540540541</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="12"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" s="11">
-        <f ca="1">ROUND(SUM(C103:C105),2)</f>
-        <v>74</v>
-      </c>
-      <c r="D106" s="13">
-        <f ca="1">ROUND(SUM(D103:D105),2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:55">
-      <c r="A110" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="14"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
-      <c r="R110" s="14"/>
-      <c r="S110" s="14"/>
-      <c r="T110" s="14"/>
-      <c r="U110" s="14"/>
-      <c r="V110" s="14"/>
-      <c r="W110" s="14"/>
-      <c r="X110" s="14"/>
-      <c r="Y110" s="14"/>
-      <c r="Z110" s="14"/>
-      <c r="AA110" s="14"/>
-      <c r="AB110" s="14"/>
-      <c r="AC110" s="14"/>
-      <c r="AD110" s="14"/>
-      <c r="AE110" s="14"/>
-      <c r="AF110" s="14"/>
-      <c r="AG110" s="14"/>
-      <c r="AH110" s="14"/>
-      <c r="AI110" s="14"/>
-      <c r="AJ110" s="14"/>
-      <c r="AK110" s="14"/>
-      <c r="AL110" s="14"/>
-      <c r="AM110" s="14"/>
-      <c r="AN110" s="14"/>
-      <c r="AO110" s="14"/>
-      <c r="AP110" s="14"/>
-      <c r="AQ110" s="14"/>
-      <c r="AR110" s="14"/>
-      <c r="AS110" s="14"/>
-      <c r="AT110" s="14"/>
-      <c r="AU110" s="14"/>
-      <c r="AV110" s="14"/>
-      <c r="AW110" s="14"/>
-      <c r="AX110" s="14"/>
-      <c r="AY110" s="14"/>
-      <c r="AZ110" s="14"/>
-      <c r="BA110" s="14"/>
-      <c r="BB110" s="14"/>
-      <c r="BC110" s="14"/>
-    </row>
-    <row r="111" spans="1:55">
-      <c r="A111" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="14"/>
-      <c r="T111" s="14"/>
-      <c r="U111" s="14"/>
-      <c r="V111" s="14"/>
-      <c r="W111" s="14"/>
-      <c r="X111" s="14"/>
-      <c r="Y111" s="14"/>
-      <c r="Z111" s="14"/>
-      <c r="AA111" s="14"/>
-      <c r="AB111" s="14"/>
-      <c r="AC111" s="14"/>
-      <c r="AD111" s="14"/>
-      <c r="AE111" s="14"/>
-      <c r="AF111" s="14"/>
-      <c r="AG111" s="14"/>
-      <c r="AH111" s="14"/>
-      <c r="AI111" s="14"/>
-      <c r="AJ111" s="14"/>
-      <c r="AK111" s="14"/>
-      <c r="AL111" s="14"/>
-      <c r="AM111" s="14"/>
-      <c r="AN111" s="14"/>
-      <c r="AO111" s="14"/>
-      <c r="AP111" s="14"/>
-      <c r="AQ111" s="14"/>
-      <c r="AR111" s="14"/>
-      <c r="AS111" s="14"/>
-      <c r="AT111" s="14"/>
-      <c r="AU111" s="14"/>
-      <c r="AV111" s="14"/>
-      <c r="AW111" s="14"/>
-      <c r="AX111" s="14"/>
-      <c r="AY111" s="14"/>
-      <c r="AZ111" s="14"/>
-      <c r="BA111" s="14"/>
-      <c r="BB111" s="14"/>
-      <c r="BC111" s="14"/>
-    </row>
-    <row r="112" spans="1:55">
-      <c r="A112" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
-      <c r="R112" s="14"/>
-      <c r="S112" s="14"/>
-      <c r="T112" s="14"/>
-      <c r="U112" s="14"/>
-      <c r="V112" s="14"/>
-      <c r="W112" s="14"/>
-      <c r="X112" s="14"/>
-      <c r="Y112" s="14"/>
-      <c r="Z112" s="14"/>
-      <c r="AA112" s="14"/>
-      <c r="AB112" s="14"/>
-      <c r="AC112" s="14"/>
-      <c r="AD112" s="14"/>
-      <c r="AE112" s="14"/>
-      <c r="AF112" s="14"/>
-      <c r="AG112" s="14"/>
-      <c r="AH112" s="14"/>
-      <c r="AI112" s="14"/>
-      <c r="AJ112" s="14"/>
-      <c r="AK112" s="14"/>
-      <c r="AL112" s="14"/>
-      <c r="AM112" s="14"/>
-      <c r="AN112" s="14"/>
-      <c r="AO112" s="14"/>
-      <c r="AP112" s="14"/>
-      <c r="AQ112" s="14"/>
-      <c r="AR112" s="14"/>
-      <c r="AS112" s="14"/>
-      <c r="AT112" s="14"/>
-      <c r="AU112" s="14"/>
-      <c r="AV112" s="14"/>
-      <c r="AW112" s="14"/>
-      <c r="AX112" s="14"/>
-      <c r="AY112" s="14"/>
-      <c r="AZ112" s="14"/>
-      <c r="BA112" s="14"/>
-      <c r="BB112" s="14"/>
-      <c r="BC112" s="14"/>
-    </row>
-    <row r="113" spans="1:55">
-      <c r="A113" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
-      <c r="R113" s="14"/>
-      <c r="S113" s="14"/>
-      <c r="T113" s="14"/>
-      <c r="U113" s="14"/>
-      <c r="V113" s="14"/>
-      <c r="W113" s="14"/>
-      <c r="X113" s="14"/>
-      <c r="Y113" s="14"/>
-      <c r="Z113" s="14"/>
-      <c r="AA113" s="14"/>
-      <c r="AB113" s="14"/>
-      <c r="AC113" s="14"/>
-      <c r="AD113" s="14"/>
-      <c r="AE113" s="14"/>
-      <c r="AF113" s="14"/>
-      <c r="AG113" s="14"/>
-      <c r="AH113" s="14"/>
-      <c r="AI113" s="14"/>
-      <c r="AJ113" s="14"/>
-      <c r="AK113" s="14"/>
-      <c r="AL113" s="14"/>
-      <c r="AM113" s="14"/>
-      <c r="AN113" s="14"/>
-      <c r="AO113" s="14"/>
-      <c r="AP113" s="14"/>
-      <c r="AQ113" s="14"/>
-      <c r="AR113" s="14"/>
-      <c r="AS113" s="14"/>
-      <c r="AT113" s="14"/>
-      <c r="AU113" s="14"/>
-      <c r="AV113" s="14"/>
-      <c r="AW113" s="14"/>
-      <c r="AX113" s="14"/>
-      <c r="AY113" s="14"/>
-      <c r="AZ113" s="14"/>
-      <c r="BA113" s="14"/>
-      <c r="BB113" s="14"/>
-      <c r="BC113" s="14"/>
-    </row>
-    <row r="114" spans="1:55">
-      <c r="A114" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
-      <c r="R114" s="14"/>
-      <c r="S114" s="14"/>
-      <c r="T114" s="14"/>
-      <c r="U114" s="14"/>
-      <c r="V114" s="14"/>
-      <c r="W114" s="14"/>
-      <c r="X114" s="14"/>
-      <c r="Y114" s="14"/>
-      <c r="Z114" s="14"/>
-      <c r="AA114" s="14"/>
-      <c r="AB114" s="14"/>
-      <c r="AC114" s="14"/>
-      <c r="AD114" s="14"/>
-      <c r="AE114" s="14"/>
-      <c r="AF114" s="14"/>
-      <c r="AG114" s="14"/>
-      <c r="AH114" s="14"/>
-      <c r="AI114" s="14"/>
-      <c r="AJ114" s="14"/>
-      <c r="AK114" s="14"/>
-      <c r="AL114" s="14"/>
-      <c r="AM114" s="14"/>
-      <c r="AN114" s="14"/>
-      <c r="AO114" s="14"/>
-      <c r="AP114" s="14"/>
-      <c r="AQ114" s="14"/>
-      <c r="AR114" s="14"/>
-      <c r="AS114" s="14"/>
-      <c r="AT114" s="14"/>
-      <c r="AU114" s="14"/>
-      <c r="AV114" s="14"/>
-      <c r="AW114" s="14"/>
-      <c r="AX114" s="14"/>
-      <c r="AY114" s="14"/>
-      <c r="AZ114" s="14"/>
-      <c r="BA114" s="14"/>
-      <c r="BB114" s="14"/>
-      <c r="BC114" s="14"/>
-    </row>
-    <row r="118" ht="28.8" spans="1:55">
-      <c r="A118" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="15"/>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="15"/>
-      <c r="R118" s="15"/>
-      <c r="S118" s="15"/>
-      <c r="T118" s="15"/>
-      <c r="U118" s="15"/>
-      <c r="V118" s="15"/>
-      <c r="W118" s="15"/>
-      <c r="X118" s="15"/>
-      <c r="Y118" s="15"/>
-      <c r="Z118" s="15"/>
-      <c r="AA118" s="15"/>
-      <c r="AB118" s="15"/>
-      <c r="AC118" s="15"/>
-      <c r="AD118" s="15"/>
-      <c r="AE118" s="15"/>
-      <c r="AF118" s="15"/>
-      <c r="AG118" s="15"/>
-      <c r="AH118" s="15"/>
-      <c r="AI118" s="15"/>
-      <c r="AJ118" s="15"/>
-      <c r="AK118" s="15"/>
-      <c r="AL118" s="15"/>
-      <c r="AM118" s="15"/>
-      <c r="AN118" s="15"/>
-      <c r="AO118" s="15"/>
-      <c r="AP118" s="15"/>
-      <c r="AQ118" s="15"/>
-      <c r="AR118" s="15"/>
-      <c r="AS118" s="15"/>
-      <c r="AT118" s="15"/>
-      <c r="AU118" s="15"/>
-      <c r="AV118" s="15"/>
-      <c r="AW118" s="15"/>
-      <c r="AX118" s="15"/>
-      <c r="AY118" s="15"/>
-      <c r="AZ118" s="15"/>
-      <c r="BA118" s="15"/>
-      <c r="BB118" s="15"/>
-      <c r="BC118" s="15"/>
-    </row>
-    <row r="119" spans="1:55">
-      <c r="A119" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
-      <c r="R119" s="14"/>
-      <c r="S119" s="14"/>
-      <c r="T119" s="14"/>
-      <c r="U119" s="14"/>
-      <c r="V119" s="14"/>
-      <c r="W119" s="14"/>
-      <c r="X119" s="14"/>
-      <c r="Y119" s="14"/>
-      <c r="Z119" s="14"/>
-      <c r="AA119" s="14"/>
-      <c r="AB119" s="14"/>
-      <c r="AC119" s="14"/>
-      <c r="AD119" s="14"/>
-      <c r="AE119" s="14"/>
-      <c r="AF119" s="14"/>
-      <c r="AG119" s="14"/>
-      <c r="AH119" s="14"/>
-      <c r="AI119" s="14"/>
-      <c r="AJ119" s="14"/>
-      <c r="AK119" s="14"/>
-      <c r="AL119" s="14"/>
-      <c r="AM119" s="14"/>
-      <c r="AN119" s="14"/>
-      <c r="AO119" s="14"/>
-      <c r="AP119" s="14"/>
-      <c r="AQ119" s="14"/>
-      <c r="AR119" s="14"/>
-      <c r="AS119" s="14"/>
-      <c r="AT119" s="14"/>
-      <c r="AU119" s="14"/>
-      <c r="AV119" s="14"/>
-      <c r="AW119" s="14"/>
-      <c r="AX119" s="14"/>
-      <c r="AY119" s="14"/>
-      <c r="AZ119" s="14"/>
-      <c r="BA119" s="14"/>
-      <c r="BB119" s="14"/>
-      <c r="BC119" s="14"/>
-    </row>
-    <row r="120" spans="1:55">
-      <c r="A120" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
-      <c r="R120" s="14"/>
-      <c r="S120" s="14"/>
-      <c r="T120" s="14"/>
-      <c r="U120" s="14"/>
-      <c r="V120" s="14"/>
-      <c r="W120" s="14"/>
-      <c r="X120" s="14"/>
-      <c r="Y120" s="14"/>
-      <c r="Z120" s="14"/>
-      <c r="AA120" s="14"/>
-      <c r="AB120" s="14"/>
-      <c r="AC120" s="14"/>
-      <c r="AD120" s="14"/>
-      <c r="AE120" s="14"/>
-      <c r="AF120" s="14"/>
-      <c r="AG120" s="14"/>
-      <c r="AH120" s="14"/>
-      <c r="AI120" s="14"/>
-      <c r="AJ120" s="14"/>
-      <c r="AK120" s="14"/>
-      <c r="AL120" s="14"/>
-      <c r="AM120" s="14"/>
-      <c r="AN120" s="14"/>
-      <c r="AO120" s="14"/>
-      <c r="AP120" s="14"/>
-      <c r="AQ120" s="14"/>
-      <c r="AR120" s="14"/>
-      <c r="AS120" s="14"/>
-      <c r="AT120" s="14"/>
-      <c r="AU120" s="14"/>
-      <c r="AV120" s="14"/>
-      <c r="AW120" s="14"/>
-      <c r="AX120" s="14"/>
-      <c r="AY120" s="14"/>
-      <c r="AZ120" s="14"/>
-      <c r="BA120" s="14"/>
-      <c r="BB120" s="14"/>
-      <c r="BC120" s="14"/>
-    </row>
-    <row r="121" spans="1:55">
-      <c r="A121" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="16"/>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16"/>
-      <c r="Q121" s="16"/>
-      <c r="R121" s="16"/>
-      <c r="S121" s="16"/>
-      <c r="T121" s="16"/>
-      <c r="U121" s="16"/>
-      <c r="V121" s="16"/>
-      <c r="W121" s="16"/>
-      <c r="X121" s="16"/>
-      <c r="Y121" s="16"/>
-      <c r="Z121" s="16"/>
-      <c r="AA121" s="16"/>
-      <c r="AB121" s="16"/>
-      <c r="AC121" s="16"/>
-      <c r="AD121" s="16"/>
-      <c r="AE121" s="16"/>
-      <c r="AF121" s="16"/>
-      <c r="AG121" s="16"/>
-      <c r="AH121" s="16"/>
-      <c r="AI121" s="16"/>
-      <c r="AJ121" s="16"/>
-      <c r="AK121" s="16"/>
-      <c r="AL121" s="16"/>
-      <c r="AM121" s="16"/>
-      <c r="AN121" s="16"/>
-      <c r="AO121" s="16"/>
-      <c r="AP121" s="16"/>
-      <c r="AQ121" s="16"/>
-      <c r="AR121" s="16"/>
-      <c r="AS121" s="16"/>
-      <c r="AT121" s="16"/>
-      <c r="AU121" s="16"/>
-      <c r="AV121" s="16"/>
-      <c r="AW121" s="16"/>
-      <c r="AX121" s="16"/>
-      <c r="AY121" s="16"/>
-      <c r="AZ121" s="16"/>
-      <c r="BA121" s="16"/>
-      <c r="BB121" s="16"/>
-      <c r="BC121" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B78:Q78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="A110:BC110"/>
-    <mergeCell ref="A111:BC111"/>
-    <mergeCell ref="A112:BC112"/>
-    <mergeCell ref="A113:BC113"/>
-    <mergeCell ref="A114:BC114"/>
-    <mergeCell ref="A118:BC118"/>
-    <mergeCell ref="A119:BC119"/>
-    <mergeCell ref="A120:BC120"/>
-    <mergeCell ref="A121:BC121"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="DNA"/>
     <hyperlink ref="F3" r:id="rId2" display="DNA"/>
